--- a/NformTester/NformTester/Keywordscripts/600.20.20.20_ConfigureActionModifyExistingAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.20_ConfigureActionModifyExistingAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="859">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3847,6 +3847,14 @@
   </si>
   <si>
     <t>Data_point_Tree</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4819,7 +4827,7 @@
   <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5516,6 +5524,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>858</v>
+      </c>
       <c r="C23" s="8">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.20_ConfigureActionModifyExistingAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.20_ConfigureActionModifyExistingAction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
+    <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="859">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3736,14 +3736,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPS_10.146.83.13 (10.146.83.13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Read-change"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3763,10 +3755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3854,6 +3842,18 @@
   </si>
   <si>
     <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_3$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4094,12 +4094,40 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4540,7 +4568,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4824,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4835,7 +4863,7 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="46.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="30.25" customWidth="1"/>
@@ -5044,7 +5072,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="16">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -5447,7 +5475,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
@@ -5525,10 +5553,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C23" s="8">
         <v>22</v>
@@ -5771,7 +5799,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:15">
       <c r="C33" s="8">
         <v>32</v>
       </c>
@@ -5797,7 +5825,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:15">
       <c r="C34" s="8">
         <v>33</v>
       </c>
@@ -5821,7 +5849,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:15">
       <c r="C35" s="8">
         <v>34</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="3"/>
@@ -5847,7 +5875,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:15">
       <c r="C36" s="8">
         <v>35</v>
       </c>
@@ -5873,7 +5901,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:15">
       <c r="C37" s="8">
         <v>36</v>
       </c>
@@ -5889,8 +5917,8 @@
       <c r="G37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>828</v>
+      <c r="H37" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="3"/>
@@ -5899,7 +5927,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:15">
       <c r="C38" s="8">
         <v>37</v>
       </c>
@@ -5927,7 +5955,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:15">
       <c r="C39" s="8">
         <v>38</v>
       </c>
@@ -5955,7 +5983,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:15">
       <c r="C40" s="8">
         <v>39</v>
       </c>
@@ -5983,7 +6011,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:15">
       <c r="C41" s="8">
         <v>40</v>
       </c>
@@ -6007,133 +6035,123 @@
       <c r="M41" s="8"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:15">
       <c r="C42" s="8">
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>829</v>
-      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="10"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:15">
       <c r="C43" s="8">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="10"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:15">
       <c r="C44" s="8">
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>317</v>
+      <c r="E44" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>855</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="8"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:15">
       <c r="C45" s="8">
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>317</v>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>825</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="8"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:15">
       <c r="C46" s="8">
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>815</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6141,20 +6159,20 @@
       <c r="M46" s="8"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:15">
       <c r="C47" s="8">
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="6"/>
@@ -6165,23 +6183,25 @@
       <c r="M47" s="8"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:15">
       <c r="C48" s="8">
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6194,16 +6214,18 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="8"/>
       <c r="I49" s="6"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6211,19 +6233,31 @@
       <c r="M49" s="8"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="3:14" ht="15">
+    <row r="50" spans="3:14">
       <c r="C50" s="8">
         <v>49</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="3"/>
+      <c r="D50" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="8"/>
@@ -6233,47 +6267,53 @@
       <c r="C51" s="8">
         <v>50</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="D51" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="12"/>
+      <c r="N51" s="10"/>
     </row>
     <row r="52" spans="3:14">
       <c r="C52" s="8">
         <v>51</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="8" t="s">
+      <c r="E52" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
       <c r="M52" s="8"/>
       <c r="N52" s="10"/>
     </row>
@@ -6281,25 +6321,23 @@
       <c r="C53" s="8">
         <v>52</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
       <c r="M53" s="8"/>
       <c r="N53" s="10"/>
     </row>
@@ -6307,23 +6345,23 @@
       <c r="C54" s="8">
         <v>53</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="F54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
       <c r="M54" s="8"/>
       <c r="N54" s="10"/>
     </row>
@@ -6331,51 +6369,39 @@
       <c r="C55" s="8">
         <v>54</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="D55" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
       <c r="M55" s="8"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="3:14">
+    <row r="56" spans="3:14" ht="15">
       <c r="C56" s="8">
         <v>55</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="H56" s="8">
-        <v>2</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="D56" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
       <c r="M56" s="8"/>
       <c r="N56" s="10"/>
     </row>
@@ -6387,23 +6413,21 @@
         <v>788</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="I57" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="10"/>
+      <c r="N57" s="12"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="8">
@@ -6413,18 +6437,16 @@
         <v>788</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>837</v>
+        <v>79</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="I58" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -6438,16 +6460,18 @@
       <c r="D59" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>391</v>
+      <c r="E59" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>815</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -6462,11 +6486,11 @@
       <c r="D60" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>391</v>
+      <c r="E60" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>2</v>
@@ -6486,14 +6510,14 @@
       <c r="D61" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>306</v>
+      <c r="E61" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>2</v>
+        <v>829</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -6503,18 +6527,28 @@
       <c r="M61" s="8"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="3:14" ht="15">
+    <row r="62" spans="3:14">
       <c r="C62" s="8">
         <v>61</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="D62" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="H62" s="8">
+        <v>2</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>857</v>
+      </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -6528,16 +6562,18 @@
       <c r="D63" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>19</v>
+      <c r="E63" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>26</v>
+        <v>394</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>832</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>833</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -6552,17 +6588,19 @@
       <c r="D64" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>19</v>
+      <c r="E64" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>27</v>
+        <v>834</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -6576,17 +6614,17 @@
       <c r="D65" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>19</v>
+      <c r="E65" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>841</v>
+        <v>395</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -6600,18 +6638,16 @@
       <c r="D66" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>19</v>
+      <c r="E66" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>841</v>
+        <v>99</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -6627,15 +6663,15 @@
         <v>788</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -6643,21 +6679,17 @@
       <c r="M67" s="8"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="3:15">
+    <row r="68" spans="3:15" ht="15">
       <c r="C68" s="8">
         <v>67</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="F68" s="8">
-        <v>2</v>
-      </c>
+      <c r="D68" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -6665,16 +6697,22 @@
       <c r="M68" s="8"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="3:15" ht="15">
+    <row r="69" spans="3:15">
       <c r="C69" s="8">
         <v>68</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -6694,13 +6732,13 @@
         <v>19</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>2</v>
+        <v>837</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -6718,13 +6756,13 @@
         <v>19</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -6739,16 +6777,16 @@
         <v>788</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>578</v>
+        <v>838</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -6765,10 +6803,10 @@
         <v>788</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>580</v>
+        <v>111</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>2</v>
@@ -6786,17 +6824,15 @@
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>788</v>
+        <v>839</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="F74" s="8">
+        <v>2</v>
+      </c>
+      <c r="G74" s="8"/>
       <c r="H74" s="6"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -6804,32 +6840,24 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="10"/>
-      <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" ht="15">
       <c r="C75" s="8">
         <v>74</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="6"/>
+      <c r="D75" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="10"/>
-      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15">
       <c r="C76" s="8">
@@ -6839,10 +6867,10 @@
         <v>788</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>2</v>
@@ -6854,276 +6882,270 @@
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="10"/>
-      <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="3:15" ht="15">
+    <row r="77" spans="3:15">
       <c r="C77" s="8">
         <v>76</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
+      <c r="D77" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="2"/>
     </row>
     <row r="78" spans="3:15">
       <c r="C78" s="8">
         <v>77</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>26</v>
+        <v>578</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>857</v>
+      </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="10"/>
-      <c r="O78" s="2"/>
     </row>
     <row r="79" spans="3:15">
       <c r="C79" s="8">
         <v>78</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>848</v>
+        <v>580</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="2"/>
     </row>
     <row r="80" spans="3:15">
       <c r="C80" s="8">
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>19</v>
+        <v>586</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>841</v>
+        <v>588</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="8">
-        <v>1</v>
-      </c>
-      <c r="I80" s="8">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
       <c r="N80" s="10"/>
+      <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:15">
       <c r="C81" s="8">
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>19</v>
+        <v>586</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="10"/>
+      <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="3:14">
+    <row r="82" spans="3:15">
       <c r="C82" s="8">
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>842</v>
+        <v>788</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="F82" s="8">
-        <v>2</v>
-      </c>
-      <c r="G82" s="8"/>
+        <v>577</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="10"/>
+      <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="3:14">
+    <row r="83" spans="3:15" ht="15">
       <c r="C83" s="8">
         <v>82</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="D83" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="10"/>
+      <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="3:14">
+    <row r="84" spans="3:15">
       <c r="C84" s="8">
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>788</v>
+        <v>844</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>856</v>
+        <v>26</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="6">
-        <v>2</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="J84" s="8">
-        <v>-10</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="10"/>
+      <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:15">
       <c r="C85" s="8">
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>793</v>
+        <v>844</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F85" s="8">
-        <v>2</v>
-      </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="10"/>
+      <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="3:14">
+    <row r="86" spans="3:15">
       <c r="C86" s="8">
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>788</v>
+        <v>844</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="J86" s="3" t="b">
+        <v>19</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="8">
         <v>1</v>
       </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="I86" s="8">
+        <v>1</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
       <c r="M86" s="8"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="3:14">
+    <row r="87" spans="3:15">
       <c r="C87" s="8">
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>788</v>
+        <v>844</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>99</v>
+        <v>19</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -7131,29 +7153,29 @@
       <c r="M87" s="8"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="3:14">
+    <row r="88" spans="3:15">
       <c r="C88" s="8">
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>793</v>
+        <v>839</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>756</v>
+        <v>840</v>
       </c>
       <c r="F88" s="8">
         <v>2</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="3:14">
+    <row r="89" spans="3:15">
       <c r="C89" s="8">
         <v>88</v>
       </c>
@@ -7161,15 +7183,15 @@
         <v>788</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>99</v>
+        <v>846</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -7177,41 +7199,53 @@
       <c r="M89" s="8"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="3:14" ht="15">
+    <row r="90" spans="3:15">
       <c r="C90" s="8">
         <v>89</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="D90" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="6">
+        <v>2</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J90" s="8">
+        <v>-10</v>
+      </c>
+      <c r="K90" s="8">
+        <v>0</v>
+      </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="3:14">
+    <row r="91" spans="3:15">
       <c r="C91" s="8">
         <v>90</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="3"/>
+      <c r="D91" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F91" s="8">
+        <v>2</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -7219,72 +7253,74 @@
       <c r="M91" s="8"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="3:14">
+    <row r="92" spans="3:15">
       <c r="C92" s="8">
         <v>91</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>19</v>
+      <c r="D92" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>79</v>
+        <v>850</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="J92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
       <c r="M92" s="8"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="3:14">
+    <row r="93" spans="3:15">
       <c r="C93" s="8">
         <v>92</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>790</v>
+      <c r="D93" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>309</v>
+        <v>848</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="3:14">
+    <row r="94" spans="3:15">
       <c r="C94" s="8">
         <v>93</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>790</v>
+      <c r="D94" s="11" t="s">
+        <v>793</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F94" s="8">
+        <v>2</v>
+      </c>
+      <c r="G94" s="8"/>
       <c r="H94" s="6"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -7293,48 +7329,40 @@
       <c r="M94" s="8"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="3:14">
+    <row r="95" spans="3:15">
       <c r="C95" s="8">
         <v>94</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>790</v>
+      <c r="D95" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>315</v>
+        <v>846</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="I95" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="3:14">
+    <row r="96" spans="3:15" ht="15">
       <c r="C96" s="8">
         <v>95</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="D96" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -7343,140 +7371,122 @@
       <c r="M96" s="8"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="3:14">
+    <row r="97" spans="3:15">
       <c r="C97" s="8">
         <v>96</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="J97" s="8">
-        <v>5</v>
-      </c>
+      <c r="D97" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="3:14">
+    <row r="98" spans="3:15">
       <c r="C98" s="8">
         <v>97</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="J98" s="8">
-        <v>30</v>
-      </c>
+      <c r="D98" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="3:14">
+    <row r="99" spans="3:15">
       <c r="C99" s="8">
         <v>98</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>788</v>
+      <c r="D99" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I99" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I99" s="6"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="3:14">
+    <row r="100" spans="3:15">
       <c r="C100" s="8">
         <v>99</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>788</v>
+      <c r="D100" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="J100" s="8">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="3:14">
+    <row r="101" spans="3:15">
       <c r="C101" s="8">
         <v>100</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>788</v>
+      <c r="D101" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="6">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -7485,37 +7495,31 @@
       <c r="M101" s="8"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="3:14">
+    <row r="102" spans="3:15">
       <c r="C102" s="8">
         <v>101</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>788</v>
+      <c r="D102" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="J102" s="8">
-        <v>60</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="3:14">
+    <row r="103" spans="3:15">
       <c r="C103" s="8">
         <v>102</v>
       </c>
@@ -7526,22 +7530,26 @@
         <v>317</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103" s="6">
-        <v>9</v>
-      </c>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J103" s="8">
+        <v>5</v>
+      </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="3:14">
+    <row r="104" spans="3:15">
       <c r="C104" s="8">
         <v>103</v>
       </c>
@@ -7552,36 +7560,44 @@
         <v>317</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J104" s="8">
+        <v>30</v>
+      </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="3:14">
+    <row r="105" spans="3:15">
       <c r="C105" s="8">
         <v>104</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>790</v>
+      <c r="D105" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="H105" s="6">
+        <v>-1</v>
+      </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -7589,7 +7605,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="3:14">
+    <row r="106" spans="3:15">
       <c r="C106" s="8">
         <v>105</v>
       </c>
@@ -7600,7 +7616,7 @@
         <v>317</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>7</v>
@@ -7612,14 +7628,14 @@
         <v>818</v>
       </c>
       <c r="J106" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="3:14">
+    <row r="107" spans="3:15">
       <c r="C107" s="8">
         <v>106</v>
       </c>
@@ -7630,21 +7646,22 @@
         <v>317</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H107" s="6">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
+      <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="3:14">
+    <row r="108" spans="3:15">
       <c r="C108" s="8">
         <v>107</v>
       </c>
@@ -7655,42 +7672,52 @@
         <v>317</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J108" s="8">
+        <v>60</v>
+      </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
+      <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="3:14">
+    <row r="109" spans="3:15">
       <c r="C109" s="8">
         <v>108</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>790</v>
+      <c r="D109" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="H109" s="6">
+        <v>9</v>
+      </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
+      <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="3:14">
+    <row r="110" spans="3:15">
       <c r="C110" s="8">
         <v>109</v>
       </c>
@@ -7701,216 +7728,227 @@
         <v>317</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="J110" s="8">
-        <v>300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
+      <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="3:14">
+    <row r="111" spans="3:15">
       <c r="C111" s="8">
         <v>110</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="3:14">
+    <row r="112" spans="3:15">
       <c r="C112" s="8">
         <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F112" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G112" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
+      <c r="G112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="3:13">
+    <row r="113" spans="3:15">
       <c r="C113" s="8">
         <v>112</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>790</v>
+      <c r="D113" s="11" t="s">
+        <v>793</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="8"/>
+        <v>756</v>
+      </c>
+      <c r="F113" s="8">
+        <v>2</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
+      <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="3:13" ht="15">
+    <row r="114" spans="3:15">
       <c r="C114" s="8">
         <v>113</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
+      <c r="D114" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
       <c r="M114" s="8"/>
+      <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="3:13">
+    <row r="115" spans="3:15">
       <c r="C115" s="8">
         <v>114</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E115" s="6" t="s">
+      <c r="D115" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
+      <c r="F115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="M115" s="8"/>
+      <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="3:13">
+    <row r="116" spans="3:15">
       <c r="C116" s="8">
         <v>115</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>800</v>
+      <c r="D116" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
       <c r="M116" s="8"/>
+      <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="3:13">
+    <row r="117" spans="3:15">
       <c r="C117" s="8">
         <v>116</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>800</v>
+      <c r="D117" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>801</v>
+        <v>306</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>578</v>
+        <v>174</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
       <c r="M117" s="8"/>
+      <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="3:13" ht="14.25">
+    <row r="118" spans="3:15">
       <c r="C118" s="8">
         <v>117</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>800</v>
+      <c r="D118" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>801</v>
+        <v>310</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="I118" s="6"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="8"/>
+      <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="3:13">
+    <row r="119" spans="3:15">
       <c r="C119" s="8">
         <v>118</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>585</v>
+      <c r="D119" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>2</v>
@@ -7921,156 +7959,686 @@
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
+      <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="3:13">
+    <row r="120" spans="3:15">
       <c r="C120" s="8">
         <v>119</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>801</v>
+        <v>317</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J120" s="8">
+        <v>10</v>
+      </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
+      <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="3:13">
+    <row r="121" spans="3:15">
       <c r="C121" s="8">
         <v>120</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="F121" s="8">
-        <v>3</v>
-      </c>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="6">
+        <v>301</v>
+      </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="3:13">
-      <c r="C122" s="8"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+    <row r="122" spans="3:15">
+      <c r="C122" s="8">
+        <v>121</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="6"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" spans="3:13">
-      <c r="C123" s="8"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
+    <row r="123" spans="3:15">
+      <c r="C123" s="8">
+        <v>122</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="3:13">
-      <c r="C124" s="8"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+    <row r="124" spans="3:15">
+      <c r="C124" s="8">
+        <v>123</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H124" s="6"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="3:13">
-      <c r="C125" s="8"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="8"/>
+    <row r="125" spans="3:15">
+      <c r="C125" s="8">
+        <v>124</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F125" s="8">
+        <v>2</v>
+      </c>
       <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
+      <c r="N125" s="10"/>
     </row>
-    <row r="126" spans="3:13">
-      <c r="C126" s="8"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
+    <row r="126" spans="3:15">
+      <c r="C126" s="8">
+        <v>125</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
       <c r="M126" s="8"/>
+      <c r="N126" s="10"/>
     </row>
-    <row r="127" spans="3:13">
-      <c r="C127" s="8"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
+    <row r="127" spans="3:15">
+      <c r="C127" s="8">
+        <v>126</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
       <c r="M127" s="8"/>
+      <c r="N127" s="10"/>
     </row>
-    <row r="128" spans="3:13">
-      <c r="C128" s="8"/>
+    <row r="128" spans="3:15">
+      <c r="C128" s="8">
+        <v>127</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="10"/>
     </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="8"/>
+    <row r="129" spans="3:14">
+      <c r="C129" s="8">
+        <v>128</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="10"/>
+    </row>
+    <row r="130" spans="3:14">
+      <c r="C130" s="8">
+        <v>129</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="10"/>
+    </row>
+    <row r="131" spans="3:14">
+      <c r="C131" s="8">
+        <v>130</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" spans="3:14">
+      <c r="C132" s="8">
+        <v>131</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J132" s="8">
+        <v>300</v>
+      </c>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="3:14">
+      <c r="C133" s="8">
+        <v>132</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" spans="3:14">
+      <c r="C134" s="8">
+        <v>133</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" spans="3:14">
+      <c r="C135" s="8">
+        <v>134</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" spans="3:14" ht="15">
+      <c r="C136" s="8">
+        <v>135</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" spans="3:14">
+      <c r="C137" s="8">
+        <v>136</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+    </row>
+    <row r="138" spans="3:14">
+      <c r="C138" s="8">
+        <v>137</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="6"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="3:14">
+      <c r="C139" s="8">
+        <v>138</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+    </row>
+    <row r="140" spans="3:14" ht="14.25">
+      <c r="C140" s="8">
+        <v>139</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="13"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="3:14">
+      <c r="C141" s="8">
+        <v>140</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+    </row>
+    <row r="142" spans="3:14">
+      <c r="C142" s="8">
+        <v>141</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+    </row>
+    <row r="143" spans="3:14">
+      <c r="C143" s="8">
+        <v>142</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="F143" s="8">
+        <v>3</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="3:14">
+      <c r="C144" s="8"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+    </row>
+    <row r="145" spans="3:13">
+      <c r="C145" s="8"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="3:13">
+      <c r="C146" s="8"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+    </row>
+    <row r="147" spans="3:13">
+      <c r="C147" s="8"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="3:13">
+      <c r="C148" s="8"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+    </row>
+    <row r="149" spans="3:13">
+      <c r="C149" s="8"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+    </row>
+    <row r="150" spans="3:13">
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="3:13">
+      <c r="C151" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N106">
-    <cfRule type="cellIs" dxfId="1" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N123:N130 N2:N120">
+    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G118:G127 G2:G116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G140:G149 G2:G138">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69:F81 F83:F86 F88 F90:F127 F2:F67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:F87 F89:F92 F94 F2:F73 F96:F149">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D115 D91:D113 D63:D68 D70:D76 D51:D61 D49 F89 F87 D78:D89 D121:D126 D8:D23 D3:D4 D27 D29:D40 D42:D46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D137 D143:D148 D125:D135 D113:D122 D69:D74 D76:D82 D57:D67 D55 F95 F93 D84:D95 D8:D23 D3:D4 D27 D29:D40 D97:D110 D44:D52">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E149">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
